--- a/results/evaluated_compare_pos_weight.xlsx
+++ b/results/evaluated_compare_pos_weight.xlsx
@@ -484,36 +484,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.848</t>
+          <t>0.6185</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5421</t>
+          <t>0.3913</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.6575</t>
+          <t>0.4765</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8845</t>
+          <t>0.886</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5733</t>
+          <t>0.5492</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.6917</t>
+          <t>0.6729</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.0342</v>
+        <v>-0.1964</v>
       </c>
     </row>
     <row r="3">
@@ -525,36 +525,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8482</t>
+          <t>0.8494</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.727</t>
+          <t>0.7249</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.7824</t>
+          <t>0.7816</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8485</t>
+          <t>0.8456</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7207</t>
+          <t>0.7224</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.7789</t>
+          <t>0.7785</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.0035</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="4">
@@ -566,36 +566,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8134</t>
+          <t>0.8161</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.8084</t>
+          <t>0.8059</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.8105</t>
+          <t>0.8107</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.8114</t>
+          <t>0.8116</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8086</t>
+          <t>0.8083</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.8095</t>
+          <t>0.8097</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5">
@@ -607,36 +607,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.7912</t>
+          <t>0.7879</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.8446</t>
+          <t>0.8463</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.8168</t>
+          <t>0.8158</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.7856</t>
+          <t>0.7872</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8503</t>
+          <t>0.8455</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.8163</t>
+          <t>0.8149</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.0005</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="6">
@@ -648,36 +648,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7578</t>
+          <t>0.752</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.8804</t>
+          <t>0.8894</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.8143</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.7085</t>
+          <t>0.6923</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9189</t>
+          <t>0.9301</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.7953</t>
+          <t>0.7881</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.0187</v>
+        <v>0.0262</v>
       </c>
     </row>
   </sheetData>
